--- a/100runs/run092/NotionalETEOutput092.xlsx
+++ b/100runs/run092/NotionalETEOutput092.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,19 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
-  </si>
-  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_294.MISSILE_SOMERSAULT_294</t>
+    <t>MISSILE_BRAVER_464.MISSILE_BRAVER_464</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_497.MISSILE_BRAVER_497</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_BRAVER_162.MISSILE_BRAVER_162</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
@@ -471,31 +465,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>294.416540266675</v>
+        <v>1116579.798370801</v>
       </c>
       <c r="G2">
-        <v>-123.4243411141511</v>
+        <v>4841118.502984885</v>
       </c>
       <c r="H2">
-        <v>1214.627469048574</v>
+        <v>3985222.998934897</v>
       </c>
       <c r="I2">
-        <v>-1848.938542221306</v>
+        <v>1114863.547489582</v>
       </c>
       <c r="J2">
-        <v>2175.273224084518</v>
+        <v>4843220.211728438</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984364.802544109</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +500,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>294.416540266675</v>
+        <v>1116579.798370801</v>
       </c>
       <c r="G3">
-        <v>-123.4243411141511</v>
+        <v>4841118.502984885</v>
       </c>
       <c r="H3">
-        <v>1214.627469048574</v>
+        <v>3985222.998934897</v>
       </c>
       <c r="I3">
-        <v>-1812.435572160205</v>
+        <v>1114893.161544221</v>
       </c>
       <c r="J3">
-        <v>2122.357975485807</v>
+        <v>4843171.560170971</v>
       </c>
       <c r="K3">
-        <v>517.4254061929378</v>
+        <v>3984668.598115306</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +535,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>294.416540266675</v>
+        <v>1116579.798370801</v>
       </c>
       <c r="G4">
-        <v>-123.4243411141511</v>
+        <v>4841118.502984885</v>
       </c>
       <c r="H4">
-        <v>1214.627469048574</v>
+        <v>3985222.998934897</v>
       </c>
       <c r="I4">
-        <v>-1775.033750043467</v>
+        <v>1114923.50481771</v>
       </c>
       <c r="J4">
-        <v>2069.442726887097</v>
+        <v>4843122.908613502</v>
       </c>
       <c r="K4">
-        <v>1009.049609840181</v>
+        <v>3984957.245046775</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +570,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>294.416540266675</v>
+        <v>1116579.798370801</v>
       </c>
       <c r="G5">
-        <v>-123.4243411141511</v>
+        <v>4841118.502984885</v>
       </c>
       <c r="H5">
-        <v>1214.627469048574</v>
+        <v>3985222.998934897</v>
       </c>
       <c r="I5">
-        <v>-1736.710942466148</v>
+        <v>1114954.595266394</v>
       </c>
       <c r="J5">
-        <v>2016.527478288386</v>
+        <v>4843074.257056035</v>
       </c>
       <c r="K5">
-        <v>1474.872610941732</v>
+        <v>3985230.743338516</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +605,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>294.416540266675</v>
+        <v>1116579.798370801</v>
       </c>
       <c r="G6">
-        <v>-123.4243411141511</v>
+        <v>4841118.502984885</v>
       </c>
       <c r="H6">
-        <v>1214.627469048574</v>
+        <v>3985222.998934897</v>
       </c>
       <c r="I6">
-        <v>-1697.444471008575</v>
+        <v>1114986.451288774</v>
       </c>
       <c r="J6">
-        <v>1963.612229689676</v>
+        <v>4843025.605498567</v>
       </c>
       <c r="K6">
-        <v>1914.89440949759</v>
+        <v>3985489.092990527</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +640,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>294.416540266675</v>
+        <v>1116579.798370801</v>
       </c>
       <c r="G7">
-        <v>-123.4243411141511</v>
+        <v>4841118.502984885</v>
       </c>
       <c r="H7">
-        <v>1214.627469048574</v>
+        <v>3985222.998934897</v>
       </c>
       <c r="I7">
-        <v>-1657.21109881585</v>
+        <v>1115019.091736398</v>
       </c>
       <c r="J7">
-        <v>1910.696981090966</v>
+        <v>4842976.953941099</v>
       </c>
       <c r="K7">
-        <v>2329.115005507756</v>
+        <v>3985732.29400281</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +675,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>294.416540266675</v>
+        <v>1116579.798370801</v>
       </c>
       <c r="G8">
-        <v>-123.4243411141511</v>
+        <v>4841118.502984885</v>
       </c>
       <c r="H8">
-        <v>1214.627469048574</v>
+        <v>3985222.998934897</v>
       </c>
       <c r="I8">
-        <v>-1615.987016846904</v>
+        <v>1115052.535925016</v>
       </c>
       <c r="J8">
-        <v>1857.781732492256</v>
+        <v>4842928.302383631</v>
       </c>
       <c r="K8">
-        <v>2717.53439897223</v>
+        <v>3985960.346375363</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +710,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>294.416540266675</v>
+        <v>1116579.798370801</v>
       </c>
       <c r="G9">
-        <v>-123.4243411141511</v>
+        <v>4841118.502984885</v>
       </c>
       <c r="H9">
-        <v>1214.627469048574</v>
+        <v>3985222.998934897</v>
       </c>
       <c r="I9">
-        <v>-1573.747829784932</v>
+        <v>1115086.803646011</v>
       </c>
       <c r="J9">
-        <v>1804.866483893545</v>
+        <v>4842879.650826164</v>
       </c>
       <c r="K9">
-        <v>3080.15258989101</v>
+        <v>3986173.250108188</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +745,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>294.416540266675</v>
+        <v>1116579.798370801</v>
       </c>
       <c r="G10">
-        <v>-103.043508229566</v>
+        <v>4841135.015783424</v>
       </c>
       <c r="H10">
-        <v>1214.627469048574</v>
+        <v>3985222.998934897</v>
       </c>
       <c r="I10">
-        <v>-1530.468541600898</v>
+        <v>1115121.915178109</v>
       </c>
       <c r="J10">
-        <v>1751.951235294835</v>
+        <v>4842830.999268697</v>
       </c>
       <c r="K10">
-        <v>3416.969578264097</v>
+        <v>3986371.005201284</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +780,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>228.5015808378966</v>
+        <v>1116531.117750592</v>
       </c>
       <c r="G11">
-        <v>-82.66267534498091</v>
+        <v>4841151.528581963</v>
       </c>
       <c r="H11">
-        <v>1496.412868571809</v>
+        <v>3985422.253075209</v>
       </c>
       <c r="I11">
-        <v>-1486.123540761547</v>
+        <v>1115157.891299383</v>
       </c>
       <c r="J11">
-        <v>1699.035986696125</v>
+        <v>4842782.347711229</v>
       </c>
       <c r="K11">
-        <v>3727.98536409149</v>
+        <v>3986553.611654651</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +815,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>189.7798488248013</v>
+        <v>1116502.520328303</v>
       </c>
       <c r="G12">
-        <v>-62.28184246039583</v>
+        <v>4841168.041380502</v>
       </c>
       <c r="H12">
-        <v>1664.258663580282</v>
+        <v>3985540.939031424</v>
       </c>
       <c r="I12">
-        <v>-1440.686585073181</v>
+        <v>1115194.753299547</v>
       </c>
       <c r="J12">
-        <v>1646.120738097415</v>
+        <v>4842733.69615376</v>
       </c>
       <c r="K12">
-        <v>4013.199947373193</v>
+        <v>3986721.06946829</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +850,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>165.3358508081456</v>
+        <v>1116484.467537342</v>
       </c>
       <c r="G13">
-        <v>-41.90100957581073</v>
+        <v>4841184.554179042</v>
       </c>
       <c r="H13">
-        <v>1784.206709009236</v>
+        <v>3985625.755862653</v>
       </c>
       <c r="I13">
-        <v>-1394.13078615222</v>
+        <v>1115232.522992552</v>
       </c>
       <c r="J13">
-        <v>1593.205489498704</v>
+        <v>4842685.044596293</v>
       </c>
       <c r="K13">
-        <v>4272.613328109202</v>
+        <v>3986873.378642199</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +885,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>148.2887058153431</v>
+        <v>1116471.877594206</v>
       </c>
       <c r="G14">
-        <v>-21.52017669122562</v>
+        <v>4841201.06697758</v>
       </c>
       <c r="H14">
-        <v>1877.610187722551</v>
+        <v>3985691.80268369</v>
       </c>
       <c r="I14">
-        <v>-1346.428593513381</v>
+        <v>1115271.2227295</v>
       </c>
       <c r="J14">
-        <v>1540.290240899994</v>
+        <v>4842636.393038825</v>
       </c>
       <c r="K14">
-        <v>4506.225506299519</v>
+        <v>3987010.53917638</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +920,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>135.5710251469669</v>
+        <v>1116462.4851196</v>
       </c>
       <c r="G15">
-        <v>-1.139343806640532</v>
+        <v>4841217.579776119</v>
       </c>
       <c r="H15">
-        <v>1954.114881822961</v>
+        <v>3985745.900153178</v>
       </c>
       <c r="I15">
-        <v>-1297.551778266024</v>
+        <v>1115310.875411866</v>
       </c>
       <c r="J15">
-        <v>1487.374992301284</v>
+        <v>4842587.741481357</v>
       </c>
       <c r="K15">
-        <v>4714.036481944141</v>
+        <v>3987132.551070832</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +955,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>125.6275748357502</v>
+        <v>1116455.141516079</v>
       </c>
       <c r="G16">
-        <v>19.24148907794457</v>
+        <v>4841234.092574658</v>
       </c>
       <c r="H16">
-        <v>2018.908773154011</v>
+        <v>3985791.716760911</v>
       </c>
       <c r="I16">
-        <v>-1247.471416409045</v>
+        <v>1115351.504505057</v>
       </c>
       <c r="J16">
-        <v>1434.459743702573</v>
+        <v>4842539.089923889</v>
       </c>
       <c r="K16">
-        <v>4896.046255043072</v>
+        <v>3987239.414325555</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +990,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>117.5825995276185</v>
+        <v>1116449.200006125</v>
       </c>
       <c r="G17">
-        <v>39.62232196252967</v>
+        <v>4841250.605373197</v>
       </c>
       <c r="H17">
-        <v>2075.105673157429</v>
+        <v>3985831.45432367</v>
       </c>
       <c r="I17">
-        <v>-1196.157871714426</v>
+        <v>1115393.134052289</v>
       </c>
       <c r="J17">
-        <v>1381.544495103863</v>
+        <v>4842490.438366421</v>
       </c>
       <c r="K17">
-        <v>5052.254825596309</v>
+        <v>3987331.128940549</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1025,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>110.9024034365776</v>
+        <v>1116444.266435785</v>
       </c>
       <c r="G18">
-        <v>60.00315484711476</v>
+        <v>4841267.118171737</v>
       </c>
       <c r="H18">
-        <v>2124.72197496935</v>
+        <v>3985866.538659409</v>
       </c>
       <c r="I18">
-        <v>-1143.580778189298</v>
+        <v>1115435.788688824</v>
       </c>
       <c r="J18">
-        <v>1328.629246505153</v>
+        <v>4842441.786808955</v>
       </c>
       <c r="K18">
-        <v>5182.662193603855</v>
+        <v>3987407.694915815</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1060,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>105.2414398717251</v>
+        <v>1116440.085606126</v>
       </c>
       <c r="G19">
-        <v>80.38398773169989</v>
+        <v>4841283.630970275</v>
       </c>
       <c r="H19">
-        <v>2169.1385493238</v>
+        <v>3985897.946199876</v>
       </c>
       <c r="I19">
-        <v>-1089.709022106153</v>
+        <v>1115479.493656541</v>
       </c>
       <c r="J19">
-        <v>1275.713997906443</v>
+        <v>4842393.135251487</v>
       </c>
       <c r="K19">
-        <v>5287.268359065707</v>
+        <v>3987469.112251352</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1095,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>100.3650720462836</v>
+        <v>1116436.484229259</v>
       </c>
       <c r="G20">
-        <v>100.764820616285</v>
+        <v>4841300.143768814</v>
       </c>
       <c r="H20">
-        <v>2209.342603466781</v>
+        <v>3985926.375012224</v>
       </c>
       <c r="I20">
-        <v>-1034.510723590566</v>
+        <v>1115524.274818881</v>
       </c>
       <c r="J20">
-        <v>1222.798749307732</v>
+        <v>4842344.483694018</v>
       </c>
       <c r="K20">
-        <v>5366.073321981867</v>
+        <v>3987515.380947159</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1130,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>96.10775096429015</v>
+        <v>1116433.340041164</v>
       </c>
       <c r="G21">
-        <v>121.1456535008701</v>
+        <v>4841316.656567354</v>
       </c>
       <c r="H21">
-        <v>2246.064416341089</v>
+        <v>3985952.341486241</v>
       </c>
       <c r="I21">
-        <v>-977.9532177555377</v>
+        <v>1115570.158676145</v>
       </c>
       <c r="J21">
-        <v>1169.883500709022</v>
+        <v>4842295.832136551</v>
       </c>
       <c r="K21">
-        <v>5419.077082352333</v>
+        <v>3987546.501003238</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1165,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>92.34893882792539</v>
+        <v>1116430.564020248</v>
       </c>
       <c r="G22">
-        <v>141.5264863854552</v>
+        <v>4841333.169365892</v>
       </c>
       <c r="H22">
-        <v>2279.85942137871</v>
+        <v>3985976.238376168</v>
       </c>
       <c r="I22">
-        <v>-920.0030353712724</v>
+        <v>1115617.172381182</v>
       </c>
       <c r="J22">
-        <v>1116.968252110312</v>
+        <v>4842247.180579083</v>
       </c>
       <c r="K22">
-        <v>5446.279640177107</v>
+        <v>3987562.472419588</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1200,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>88.99853319334719</v>
+        <v>1116428.089622545</v>
       </c>
       <c r="G23">
-        <v>161.9073192700403</v>
+        <v>4841349.682164432</v>
       </c>
       <c r="H23">
-        <v>2311.159920571426</v>
+        <v>3985998.371368397</v>
       </c>
       <c r="I23">
-        <v>-860.6258830589846</v>
+        <v>1115665.343755454</v>
       </c>
       <c r="J23">
-        <v>1064.053003511601</v>
+        <v>4842198.529021616</v>
       </c>
       <c r="K23">
-        <v>5447.680995456188</v>
+        <v>3987563.29519621</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1235,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>85.9876646044695</v>
+        <v>1116425.865985429</v>
       </c>
       <c r="G24">
-        <v>182.2881521546254</v>
+        <v>4841366.194962971</v>
       </c>
       <c r="H24">
-        <v>2340.308988634344</v>
+        <v>3986018.983055545</v>
       </c>
       <c r="I24">
-        <v>-799.7866229969857</v>
+        <v>1115714.7013055</v>
       </c>
       <c r="J24">
-        <v>1011.137754912891</v>
+        <v>4842149.877464147</v>
       </c>
       <c r="K24">
-        <v>5423.281148189576</v>
+        <v>3987548.969333102</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1270,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>83.26267667856084</v>
+        <v>1116423.85348169</v>
       </c>
       <c r="G25">
-        <v>202.6689850392105</v>
+        <v>4841382.707761509</v>
       </c>
       <c r="H25">
-        <v>2367.583455620146</v>
+        <v>3986038.269187761</v>
       </c>
       <c r="I25">
-        <v>-737.4492521270522</v>
+        <v>1115765.274239809</v>
       </c>
       <c r="J25">
-        <v>958.2225063141809</v>
+        <v>4842101.225906679</v>
       </c>
       <c r="K25">
-        <v>5373.080098377271</v>
+        <v>3987519.494830265</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1305,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>80.78106635820861</v>
+        <v>1116422.020721258</v>
       </c>
       <c r="G26">
-        <v>223.0498179237956</v>
+        <v>4841399.220560049</v>
       </c>
       <c r="H26">
-        <v>2393.209935441007</v>
+        <v>3986056.390006706</v>
       </c>
       <c r="I26">
-        <v>-673.5768808487767</v>
+        <v>1115817.092486098</v>
       </c>
       <c r="J26">
-        <v>905.3072577154705</v>
+        <v>4842052.574349212</v>
       </c>
       <c r="K26">
-        <v>5297.077846019274</v>
+        <v>3987474.8716877</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1340,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>78.50867292626451</v>
+        <v>1116420.342475188</v>
       </c>
       <c r="G27">
-        <v>243.4306508083806</v>
+        <v>4841415.733358587</v>
       </c>
       <c r="H27">
-        <v>2417.376281861195</v>
+        <v>3986073.478346231</v>
       </c>
       <c r="I27">
-        <v>-608.1317111892778</v>
+        <v>1115870.18670903</v>
       </c>
       <c r="J27">
-        <v>852.3920091167602</v>
+        <v>4842003.922791744</v>
       </c>
       <c r="K27">
-        <v>5195.274391115584</v>
+        <v>3987415.099905406</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1375,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>76.41768626623491</v>
+        <v>1116418.798204687</v>
       </c>
       <c r="G28">
-        <v>263.8114836929658</v>
+        <v>4841432.246157127</v>
       </c>
       <c r="H28">
-        <v>2440.239953139886</v>
+        <v>3986089.645547132</v>
       </c>
       <c r="I28">
-        <v>-541.075014435366</v>
+        <v>1115924.588328356</v>
       </c>
       <c r="J28">
-        <v>799.47676051805</v>
+        <v>4841955.271234276</v>
       </c>
       <c r="K28">
-        <v>5067.669733666201</v>
+        <v>3987340.179483383</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1410,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>74.48520660943684</v>
+        <v>1116417.370997433</v>
       </c>
       <c r="G29">
-        <v>284.1923165775509</v>
+        <v>4841448.758955666</v>
       </c>
       <c r="H29">
-        <v>2461.934235296762</v>
+        <v>3986104.985857696</v>
       </c>
       <c r="I29">
-        <v>-472.3671082149183</v>
+        <v>1115980.32953751</v>
       </c>
       <c r="J29">
-        <v>746.5615119193396</v>
+        <v>4841906.619676809</v>
       </c>
       <c r="K29">
-        <v>4914.263873671125</v>
+        <v>3987250.110421631</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1445,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>72.69218408019805</v>
+        <v>1116416.046784393</v>
       </c>
       <c r="G30">
-        <v>304.573149462136</v>
+        <v>4841465.271754204</v>
       </c>
       <c r="H30">
-        <v>2482.572949921836</v>
+        <v>3986119.579762656</v>
       </c>
       <c r="I30">
-        <v>-401.967333013907</v>
+        <v>1116037.443322658</v>
       </c>
       <c r="J30">
-        <v>693.6462633206293</v>
+        <v>4841857.968119341</v>
       </c>
       <c r="K30">
-        <v>4735.056811130356</v>
+        <v>3987144.892720151</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1480,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>71.02262516495944</v>
+        <v>1116414.813753771</v>
       </c>
       <c r="G31">
-        <v>324.9539823467211</v>
+        <v>4841481.784552745</v>
       </c>
       <c r="H31">
-        <v>2502.254068881467</v>
+        <v>3986133.4965392</v>
       </c>
       <c r="I31">
-        <v>-329.8340281151765</v>
+        <v>1116095.963482221</v>
       </c>
       <c r="J31">
-        <v>640.7310147219191</v>
+        <v>4841809.316561873</v>
       </c>
       <c r="K31">
-        <v>4530.048546043896</v>
+        <v>3987024.526378942</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1515,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>69.46299022271489</v>
+        <v>1116413.661906042</v>
       </c>
       <c r="G32">
-        <v>345.3348152313062</v>
+        <v>4841498.297351284</v>
       </c>
       <c r="H32">
-        <v>2521.062527020807</v>
+        <v>3986146.796245869</v>
       </c>
       <c r="I32">
-        <v>-255.9245069447385</v>
+        <v>1116155.924646877</v>
       </c>
       <c r="J32">
-        <v>587.8157661232087</v>
+        <v>4841760.665004405</v>
       </c>
       <c r="K32">
-        <v>4299.239078411741</v>
+        <v>3986889.011398003</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1550,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>68.00172998911997</v>
+        <v>1116412.582711652</v>
       </c>
       <c r="G33">
-        <v>365.7156481158913</v>
+        <v>4841514.810149822</v>
       </c>
       <c r="H33">
-        <v>2539.072437351539</v>
+        <v>3986159.531288941</v>
       </c>
       <c r="I33">
-        <v>-180.1950318109908</v>
+        <v>1116217.362300048</v>
       </c>
       <c r="J33">
-        <v>534.9005175244986</v>
+        <v>4841712.013446937</v>
       </c>
       <c r="K33">
-        <v>4042.628408233895</v>
+        <v>3986738.347777336</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1585,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>66.62892472197137</v>
+        <v>1116411.568844505</v>
       </c>
       <c r="G34">
-        <v>386.0964810004764</v>
+        <v>4841531.322948362</v>
       </c>
       <c r="H34">
-        <v>2556.348854856399</v>
+        <v>3986171.747669646</v>
       </c>
       <c r="I34">
-        <v>-102.600788021914</v>
+        <v>1116280.312798907</v>
       </c>
       <c r="J34">
-        <v>481.9852689257883</v>
+        <v>4841663.36188947</v>
       </c>
       <c r="K34">
-        <v>3760.216535510355</v>
+        <v>3986572.53551694</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1620,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>65.33600017680503</v>
+        <v>1116410.613972208</v>
       </c>
       <c r="G35">
-        <v>406.4773138850615</v>
+        <v>4841547.8357469</v>
       </c>
       <c r="H35">
-        <v>2572.949194974724</v>
+        <v>3986183.485987191</v>
       </c>
       <c r="I35">
-        <v>-23.09585736492683</v>
+        <v>1116344.813395888</v>
       </c>
       <c r="J35">
-        <v>429.0700203270779</v>
+        <v>4841614.710332002</v>
       </c>
       <c r="K35">
-        <v>3452.003460241122</v>
+        <v>3986391.574616815</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1655,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>64.11550180866354</v>
+        <v>1116409.712589304</v>
       </c>
       <c r="G36">
-        <v>426.8581467696466</v>
+        <v>4841564.34854544</v>
       </c>
       <c r="H36">
-        <v>2588.924384849415</v>
+        <v>3986194.782252825</v>
       </c>
       <c r="I36">
-        <v>58.36680906629382</v>
+        <v>1116410.902260729</v>
       </c>
       <c r="J36">
-        <v>376.1547717283677</v>
+        <v>4841566.058774535</v>
       </c>
       <c r="K36">
-        <v>3117.989182426197</v>
+        <v>3986195.465076962</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1690,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>62.96091360532482</v>
+        <v>1116408.85988348</v>
       </c>
       <c r="G37">
-        <v>447.2389796542317</v>
+        <v>4841580.861343979</v>
       </c>
       <c r="H37">
-        <v>2604.319805564277</v>
+        <v>3986205.668556106</v>
       </c>
       <c r="I37">
-        <v>141.8354187141042</v>
+        <v>1116478.618503066</v>
       </c>
       <c r="J37">
-        <v>323.2395231296574</v>
+        <v>4841517.407217067</v>
       </c>
       <c r="K37">
-        <v>2758.173702065579</v>
+        <v>3985984.20689738</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1725,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>61.86651149142313</v>
+        <v>1116408.051627294</v>
       </c>
       <c r="G38">
-        <v>467.6198125388168</v>
+        <v>4841597.374142517</v>
       </c>
       <c r="H38">
-        <v>2619.176069315765</v>
+        <v>3986216.173614448</v>
       </c>
       <c r="I38">
-        <v>227.3593660847799</v>
+        <v>1116548.002195574</v>
       </c>
       <c r="J38">
-        <v>270.3242745309473</v>
+        <v>4841468.755659599</v>
       </c>
       <c r="K38">
-        <v>2372.557019159269</v>
+        <v>3985757.800078068</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1760,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>60.82724377102533</v>
+        <v>1116407.284089885</v>
       </c>
       <c r="G39">
-        <v>488.0006454234019</v>
+        <v>4841613.886941057</v>
       </c>
       <c r="H39">
-        <v>2633.529665048049</v>
+        <v>3986226.323229662</v>
       </c>
       <c r="I39">
-        <v>314.9892619788687</v>
+        <v>1116619.094397678</v>
       </c>
       <c r="J39">
-        <v>217.4090259322369</v>
+        <v>4841420.104102131</v>
       </c>
       <c r="K39">
-        <v>1961.139133707264</v>
+        <v>3985516.244619028</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1795,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>59.83863290791375</v>
+        <v>1116406.553964427</v>
       </c>
       <c r="G40">
-        <v>508.381478307987</v>
+        <v>4841630.399739596</v>
       </c>
       <c r="H40">
-        <v>2647.413498394173</v>
+        <v>3986236.140669751</v>
       </c>
       <c r="I40">
-        <v>404.7769634413243</v>
+        <v>1116691.937179854</v>
       </c>
       <c r="J40">
-        <v>164.4937773335265</v>
+        <v>4841371.452544663</v>
       </c>
       <c r="K40">
-        <v>1523.920045709568</v>
+        <v>3985259.54052026</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1830,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>58.89669428570684</v>
+        <v>1116405.858308134</v>
       </c>
       <c r="G41">
-        <v>528.762311192572</v>
+        <v>4841646.912538134</v>
       </c>
       <c r="H41">
-        <v>2660.857346029929</v>
+        <v>3986245.64699019</v>
       </c>
       <c r="I41">
-        <v>496.7756044491208</v>
+        <v>1116766.573648528</v>
       </c>
       <c r="J41">
-        <v>111.5785287348163</v>
+        <v>4841322.800987195</v>
       </c>
       <c r="K41">
-        <v>1060.89975516618</v>
+        <v>3984987.687781762</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1865,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>57.99786858534188</v>
+        <v>1116405.194492318</v>
       </c>
       <c r="G42">
-        <v>549.1431440771571</v>
+        <v>4841663.425336674</v>
       </c>
       <c r="H42">
-        <v>2673.888240221365</v>
+        <v>3986254.861305851</v>
       </c>
       <c r="I42">
-        <v>591.0396273545384</v>
+        <v>1116843.047971578</v>
       </c>
       <c r="J42">
-        <v>58.66328013610597</v>
+        <v>4841274.149429728</v>
       </c>
       <c r="K42">
-        <v>572.0782620770968</v>
+        <v>3984700.686403535</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1900,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>57.13896516283325</v>
+        <v>1116404.560160572</v>
       </c>
       <c r="G43">
-        <v>569.5239769617423</v>
+        <v>4841679.938135213</v>
       </c>
       <c r="H43">
-        <v>2686.53079605316</v>
+        <v>3986263.80102238</v>
       </c>
       <c r="I43">
-        <v>687.6248151026903</v>
+        <v>1116921.405404479</v>
       </c>
       <c r="J43">
-        <v>5.748031537395594</v>
+        <v>4841225.497872259</v>
       </c>
       <c r="K43">
-        <v>57.45556644232167</v>
+        <v>3984398.53638558</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1935,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>56.31711437377017</v>
+        <v>1116403.953193558</v>
       </c>
       <c r="G44">
-        <v>589.9048098463273</v>
+        <v>4841696.450933752</v>
       </c>
       <c r="H44">
-        <v>2698.807491294257</v>
+        <v>3986272.4820341</v>
       </c>
       <c r="I44">
-        <v>786.5883242423962</v>
+        <v>1117001.692317077</v>
       </c>
       <c r="J44">
-        <v>-47.16721706131454</v>
+        <v>4841176.846314793</v>
       </c>
       <c r="K44">
-        <v>-482.9683317381447</v>
+        <v>3984081.237727896</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1970,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>55.52972722090223</v>
+        <v>1116403.371679205</v>
       </c>
       <c r="G45">
-        <v>610.2856427309124</v>
+        <v>4841712.963732291</v>
       </c>
       <c r="H45">
-        <v>2710.738906896153</v>
+        <v>3986280.918894074</v>
       </c>
       <c r="I45">
-        <v>887.9887187499089</v>
+        <v>1117083.956221035</v>
       </c>
       <c r="J45">
-        <v>-100.0824656600249</v>
+        <v>4841128.194757325</v>
       </c>
       <c r="K45">
-        <v>-1049.193432464305</v>
+        <v>3983748.790430483</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2005,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>54.77446103184302</v>
+        <v>1116402.813887365</v>
       </c>
       <c r="G46">
-        <v>630.6664756154976</v>
+        <v>4841729.476530829</v>
       </c>
       <c r="H46">
-        <v>2722.343934587549</v>
+        <v>3986289.12496089</v>
       </c>
       <c r="I46">
-        <v>991.8860046855174</v>
+        <v>1117168.245797947</v>
       </c>
       <c r="J46">
-        <v>-152.9977142587353</v>
+        <v>4841079.543199856</v>
       </c>
       <c r="K46">
-        <v>-1641.21973573616</v>
+        <v>3983401.194493341</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2040,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>54.04919013031717</v>
+        <v>1116402.278248148</v>
       </c>
       <c r="G47">
-        <v>651.0473085000826</v>
+        <v>4841745.989329369</v>
       </c>
       <c r="H47">
-        <v>2733.639956823817</v>
+        <v>3986297.112525907</v>
       </c>
       <c r="I47">
-        <v>1098.34166570354</v>
+        <v>1117254.610928145</v>
       </c>
       <c r="J47">
-        <v>-205.9129628574457</v>
+        <v>4841030.891642389</v>
       </c>
       <c r="K47">
-        <v>-2259.047241553707</v>
+        <v>3983038.44991647</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2075,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>53.35198066463587</v>
+        <v>1116401.763333332</v>
       </c>
       <c r="G48">
-        <v>671.4281413846677</v>
+        <v>4841762.502127908</v>
       </c>
       <c r="H48">
-        <v>2744.643003394702</v>
+        <v>3986304.892924001</v>
       </c>
       <c r="I48">
-        <v>1207.418699436718</v>
+        <v>1117343.10272022</v>
       </c>
       <c r="J48">
-        <v>-258.8282114561555</v>
+        <v>4840982.240084921</v>
       </c>
       <c r="K48">
-        <v>-2902.675949916942</v>
+        <v>3982660.556699871</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2110,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>52.68106891461389</v>
+        <v>1116401.267840345</v>
       </c>
       <c r="G49">
-        <v>691.8089742692529</v>
+        <v>4841779.014926447</v>
       </c>
       <c r="H49">
-        <v>2755.367888231848</v>
+        <v>3986312.476630295</v>
       </c>
       <c r="I49">
-        <v>1319.181654776546</v>
+        <v>1117433.773541264</v>
       </c>
       <c r="J49">
-        <v>-311.7434600548659</v>
+        <v>4840933.588527454</v>
       </c>
       <c r="K49">
-        <v>-3572.105860825874</v>
+        <v>3982267.514843543</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2145,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>52.03484252286644</v>
+        <v>1116400.790578403</v>
       </c>
       <c r="G50">
-        <v>712.1898071538379</v>
+        <v>4841795.527724986</v>
       </c>
       <c r="H50">
-        <v>2765.82832934624</v>
+        <v>3986319.873344976</v>
       </c>
       <c r="I50">
-        <v>1433.696670071583</v>
+        <v>1117526.67704786</v>
       </c>
       <c r="J50">
-        <v>-364.6587086535763</v>
+        <v>4840884.936969985</v>
       </c>
       <c r="K50">
-        <v>-4267.336974280499</v>
+        <v>3981859.324347485</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2180,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>51.41182419580242</v>
+        <v>1116400.33045647</v>
       </c>
       <c r="G51">
-        <v>732.570640038423</v>
+        <v>4841812.040523525</v>
       </c>
       <c r="H51">
-        <v>2776.037054331969</v>
+        <v>3986327.092067892</v>
       </c>
       <c r="I51">
-        <v>1551.031512266377</v>
+        <v>1117621.868217837</v>
       </c>
       <c r="J51">
-        <v>-417.5739572522867</v>
+        <v>4840836.285412517</v>
       </c>
       <c r="K51">
-        <v>-4988.369290280818</v>
+        <v>3981435.985211699</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2215,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>50.81065749928552</v>
+        <v>1116399.886472769</v>
       </c>
       <c r="G52">
-        <v>752.9514729230082</v>
+        <v>4841828.553322064</v>
       </c>
       <c r="H52">
-        <v>2786.005893471794</v>
+        <v>3986334.141164389</v>
       </c>
       <c r="I52">
-        <v>1671.255617004145</v>
+        <v>1117719.4033828</v>
       </c>
       <c r="J52">
-        <v>-470.4892058509971</v>
+        <v>4840787.63385505</v>
       </c>
       <c r="K52">
-        <v>-5735.202808826828</v>
+        <v>3980997.497436184</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2250,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>50.23009443813089</v>
+        <v>1116399.45770561</v>
       </c>
       <c r="G53">
-        <v>773.3323058075932</v>
+        <v>4841845.066120603</v>
       </c>
       <c r="H53">
-        <v>2795.745862152812</v>
+        <v>3986341.028423592</v>
       </c>
       <c r="I53">
-        <v>1794.440129716928</v>
+        <v>1117819.34026147</v>
       </c>
       <c r="J53">
-        <v>-523.4044544497069</v>
+        <v>4840738.982297583</v>
       </c>
       <c r="K53">
-        <v>-6507.837529918525</v>
+        <v>3980543.861020941</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2285,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>49.66898456063394</v>
+        <v>1116399.043305342</v>
       </c>
       <c r="G54">
-        <v>793.7131386921783</v>
+        <v>4841861.578919142</v>
       </c>
       <c r="H54">
-        <v>2805.267234032048</v>
+        <v>3986347.761110139</v>
       </c>
       <c r="I54">
-        <v>1920.657947727593</v>
+        <v>1117921.737993836</v>
       </c>
       <c r="J54">
-        <v>-576.3197030484173</v>
+        <v>4840690.330740115</v>
       </c>
       <c r="K54">
-        <v>-7306.273453555922</v>
+        <v>3980075.075965968</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2323,34 +2317,34 @@
         <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>206.2252038471089</v>
+        <v>1116578.839076889</v>
       </c>
       <c r="G55">
-        <v>-137.3759185762832</v>
+        <v>4841127.452460635</v>
       </c>
       <c r="H55">
-        <v>985.5078386728121</v>
+        <v>3985223.195047915</v>
       </c>
       <c r="I55">
-        <v>-1284.721300923739</v>
+        <v>1114859.705362194</v>
       </c>
       <c r="J55">
-        <v>1077.736806390852</v>
+        <v>4843223.146162447</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984379.841304692</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2358,34 +2352,34 @@
         <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>206.2252038471089</v>
+        <v>1116578.839076889</v>
       </c>
       <c r="G56">
-        <v>-137.3759185762832</v>
+        <v>4841127.452460635</v>
       </c>
       <c r="H56">
-        <v>985.5078386728121</v>
+        <v>3985223.195047915</v>
       </c>
       <c r="I56">
-        <v>-1259.357481568155</v>
+        <v>1114889.319314774</v>
       </c>
       <c r="J56">
-        <v>1051.520002725578</v>
+        <v>4843174.494575501</v>
       </c>
       <c r="K56">
-        <v>335.5883851192906</v>
+        <v>3984683.638022549</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2393,34 +2387,34 @@
         <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>206.2252038471089</v>
+        <v>1116578.839076889</v>
       </c>
       <c r="G57">
-        <v>-137.3759185762832</v>
+        <v>4841127.452460635</v>
       </c>
       <c r="H57">
-        <v>985.5078386728121</v>
+        <v>3985223.195047915</v>
       </c>
       <c r="I57">
-        <v>-1233.369101495226</v>
+        <v>1114919.662483692</v>
       </c>
       <c r="J57">
-        <v>1025.303199060304</v>
+        <v>4843125.842988555</v>
       </c>
       <c r="K57">
-        <v>654.4427950746001</v>
+        <v>3984972.286043499</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2428,34 +2422,34 @@
         <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>206.2252038471089</v>
+        <v>1116578.839076889</v>
       </c>
       <c r="G58">
-        <v>-137.3759185762832</v>
+        <v>4841127.452460635</v>
       </c>
       <c r="H58">
-        <v>985.5078386728121</v>
+        <v>3985223.195047915</v>
       </c>
       <c r="I58">
-        <v>-1206.740781471872</v>
+        <v>1114950.75282523</v>
       </c>
       <c r="J58">
-        <v>999.0863953950292</v>
+        <v>4843077.191401611</v>
       </c>
       <c r="K58">
-        <v>956.5632298659309</v>
+        <v>3985245.785367543</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2463,34 +2457,34 @@
         <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>206.2252038471089</v>
+        <v>1116578.839076889</v>
       </c>
       <c r="G59">
-        <v>-137.3759185762832</v>
+        <v>4841127.452460635</v>
       </c>
       <c r="H59">
-        <v>985.5078386728121</v>
+        <v>3985223.195047915</v>
       </c>
       <c r="I59">
-        <v>-1179.456763565548</v>
+        <v>1114982.608737825</v>
       </c>
       <c r="J59">
-        <v>972.8695917297549</v>
+        <v>4843028.539814666</v>
       </c>
       <c r="K59">
-        <v>1241.949689493281</v>
+        <v>3985504.135994681</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2498,34 +2492,34 @@
         <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>206.2252038471089</v>
+        <v>1116578.839076889</v>
       </c>
       <c r="G60">
-        <v>-137.3759185762832</v>
+        <v>4841127.452460635</v>
       </c>
       <c r="H60">
-        <v>985.5078386728121</v>
+        <v>3985223.195047915</v>
       </c>
       <c r="I60">
-        <v>-1151.500901819117</v>
+        <v>1115015.249072961</v>
       </c>
       <c r="J60">
-        <v>946.6527880644805</v>
+        <v>4842979.888227722</v>
       </c>
       <c r="K60">
-        <v>1510.602173956652</v>
+        <v>3985747.337924912</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2533,34 +2527,34 @@
         <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>206.2252038471089</v>
+        <v>1116578.839076889</v>
       </c>
       <c r="G61">
-        <v>-137.3759185762832</v>
+        <v>4841127.452460635</v>
       </c>
       <c r="H61">
-        <v>985.5078386728121</v>
+        <v>3985223.195047915</v>
       </c>
       <c r="I61">
-        <v>-1122.856652696102</v>
+        <v>1115048.693146321</v>
       </c>
       <c r="J61">
-        <v>920.4359843992063</v>
+        <v>4842931.236640776</v>
       </c>
       <c r="K61">
-        <v>1762.520683256044</v>
+        <v>3985975.391158237</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2568,34 +2562,34 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>206.2252038471089</v>
+        <v>1116578.839076889</v>
       </c>
       <c r="G62">
-        <v>-137.3759185762832</v>
+        <v>4841127.452460635</v>
       </c>
       <c r="H62">
-        <v>985.5078386728121</v>
+        <v>3985223.195047915</v>
       </c>
       <c r="I62">
-        <v>-1093.507065290658</v>
+        <v>1115082.96074922</v>
       </c>
       <c r="J62">
-        <v>894.2191807339319</v>
+        <v>4842882.585053831</v>
       </c>
       <c r="K62">
-        <v>1997.705217391455</v>
+        <v>3986188.295694655</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2603,34 +2597,34 @@
         <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>206.2252038471089</v>
+        <v>1116578.839076889</v>
       </c>
       <c r="G63">
-        <v>-114.6912875416308</v>
+        <v>4841143.965289702</v>
       </c>
       <c r="H63">
-        <v>985.5078386728121</v>
+        <v>3985223.195047915</v>
       </c>
       <c r="I63">
-        <v>-1063.434771296481</v>
+        <v>1115118.072160314</v>
       </c>
       <c r="J63">
-        <v>868.0023770686577</v>
+        <v>4842833.933466886</v>
       </c>
       <c r="K63">
-        <v>2216.155776362886</v>
+        <v>3986386.051534166</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2638,34 +2632,34 @@
         <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>160.0548156873226</v>
+        <v>1116530.158498504</v>
       </c>
       <c r="G64">
-        <v>-92.00665650697839</v>
+        <v>4841160.478118766</v>
       </c>
       <c r="H64">
-        <v>1214.139025707651</v>
+        <v>3985422.449198033</v>
       </c>
       <c r="I64">
-        <v>-1032.6219747287</v>
+        <v>1115154.048157605</v>
       </c>
       <c r="J64">
-        <v>841.7855734033834</v>
+        <v>4842785.281879941</v>
       </c>
       <c r="K64">
-        <v>2417.872360170337</v>
+        <v>3986568.658676771</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2673,34 +2667,34 @@
         <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>132.9320288001432</v>
+        <v>1116501.561100784</v>
       </c>
       <c r="G65">
-        <v>-69.32202547232599</v>
+        <v>4841176.990947831</v>
       </c>
       <c r="H65">
-        <v>1350.323453348408</v>
+        <v>3985541.135160088</v>
       </c>
       <c r="I65">
-        <v>-1001.05044139269</v>
+        <v>1115190.910030732</v>
       </c>
       <c r="J65">
-        <v>815.568769738109</v>
+        <v>4842736.630292996</v>
       </c>
       <c r="K65">
-        <v>2602.85496881381</v>
+        <v>3986736.11712247</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2708,34 +2702,34 @@
         <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>115.8101358886337</v>
+        <v>1116483.508325332</v>
       </c>
       <c r="G66">
-        <v>-46.63739443767357</v>
+        <v>4841193.503776897</v>
       </c>
       <c r="H66">
-        <v>1447.645259429668</v>
+        <v>3985625.951995491</v>
       </c>
       <c r="I66">
-        <v>-968.7014880935592</v>
+        <v>1115228.679593572</v>
       </c>
       <c r="J66">
-        <v>789.3519660728347</v>
+        <v>4842687.978706051</v>
       </c>
       <c r="K66">
-        <v>2771.103602293302</v>
+        <v>3986888.426871262</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2743,34 +2737,34 @@
         <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>103.8693972739905</v>
+        <v>1116470.918393013</v>
       </c>
       <c r="G67">
-        <v>-23.95276340302116</v>
+        <v>4841210.016605962</v>
       </c>
       <c r="H67">
-        <v>1523.429697684949</v>
+        <v>3985691.998819778</v>
       </c>
       <c r="I67">
-        <v>-935.5559715799288</v>
+        <v>1115267.37919715</v>
       </c>
       <c r="J67">
-        <v>763.1351624075604</v>
+        <v>4842639.327119106</v>
       </c>
       <c r="K67">
-        <v>2922.618260608815</v>
+        <v>3987025.587923147</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2778,34 +2772,34 @@
         <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>94.9612486831446</v>
+        <v>1116461.525926477</v>
       </c>
       <c r="G68">
-        <v>-1.268132368368761</v>
+        <v>4841226.529435027</v>
       </c>
       <c r="H68">
-        <v>1585.50303099288</v>
+        <v>3985746.096291928</v>
       </c>
       <c r="I68">
-        <v>-901.5942772154663</v>
+        <v>1115307.031742863</v>
       </c>
       <c r="J68">
-        <v>736.9183587422862</v>
+        <v>4842590.675532161</v>
       </c>
       <c r="K68">
-        <v>3057.398943760347</v>
+        <v>3987147.600278126</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2813,34 +2807,34 @@
         <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>87.99632047117358</v>
+        <v>1116454.182329264</v>
       </c>
       <c r="G69">
-        <v>21.41649866628365</v>
+        <v>4841243.042264092</v>
       </c>
       <c r="H69">
-        <v>1638.074613170979</v>
+        <v>3985791.912901915</v>
       </c>
       <c r="I69">
-        <v>-866.7963073714649</v>
+        <v>1115347.660696034</v>
       </c>
       <c r="J69">
-        <v>710.7015550770118</v>
+        <v>4842542.023945216</v>
       </c>
       <c r="K69">
-        <v>3175.4456517479</v>
+        <v>3987254.463936199</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2848,34 +2842,34 @@
         <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>82.36118641463699</v>
+        <v>1116448.240824415</v>
       </c>
       <c r="G70">
-        <v>44.10112970093607</v>
+        <v>4841259.555093157</v>
       </c>
       <c r="H70">
-        <v>1683.670885998451</v>
+        <v>3985831.650466631</v>
       </c>
       <c r="I70">
-        <v>-831.1414695335999</v>
+        <v>1115389.2900998</v>
       </c>
       <c r="J70">
-        <v>684.4847514117375</v>
+        <v>4842493.372358271</v>
       </c>
       <c r="K70">
-        <v>3276.758384571473</v>
+        <v>3987346.178897364</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2883,34 +2877,34 @@
         <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>77.68201723696185</v>
+        <v>1116443.307258313</v>
       </c>
       <c r="G71">
-        <v>66.78576073558847</v>
+        <v>4841276.067922223</v>
       </c>
       <c r="H71">
-        <v>1723.927882985276</v>
+        <v>3985866.734804095</v>
       </c>
       <c r="I71">
-        <v>-794.6086641158271</v>
+        <v>1115431.944589334</v>
       </c>
       <c r="J71">
-        <v>658.2679477464632</v>
+        <v>4842444.720771326</v>
       </c>
       <c r="K71">
-        <v>3361.337142231066</v>
+        <v>3987422.745161624</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2918,34 +2912,34 @@
         <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>73.71677342261864</v>
+        <v>1116439.126432247</v>
       </c>
       <c r="G72">
-        <v>89.47039177024091</v>
+        <v>4841292.580751288</v>
       </c>
       <c r="H72">
-        <v>1759.965996158851</v>
+        <v>3985898.142346108</v>
       </c>
       <c r="I72">
-        <v>-757.176271974206</v>
+        <v>1115475.649406432</v>
       </c>
       <c r="J72">
-        <v>632.0511440811888</v>
+        <v>4842396.069184382</v>
       </c>
       <c r="K72">
-        <v>3429.18192472668</v>
+        <v>3987484.162728976</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2953,34 +2947,34 @@
         <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>70.30110272720094</v>
+        <v>1116435.525058473</v>
       </c>
       <c r="G73">
-        <v>112.1550228048933</v>
+        <v>4841309.093580353</v>
       </c>
       <c r="H73">
-        <v>1792.586212244833</v>
+        <v>3985926.571159855</v>
       </c>
       <c r="I73">
-        <v>-718.8221416132668</v>
+        <v>1115520.430414444</v>
       </c>
       <c r="J73">
-        <v>605.8343404159147</v>
+        <v>4842347.417597435</v>
       </c>
       <c r="K73">
-        <v>3480.292732058313</v>
+        <v>3987530.431599423</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2988,34 +2982,34 @@
         <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>67.31904571647233</v>
+        <v>1116432.38087308</v>
       </c>
       <c r="G74">
-        <v>134.8396538395457</v>
+        <v>4841325.606409419</v>
       </c>
       <c r="H74">
-        <v>1822.381054993</v>
+        <v>3985952.537635149</v>
       </c>
       <c r="I74">
-        <v>-679.5235760773427</v>
+        <v>1115566.31411358</v>
       </c>
       <c r="J74">
-        <v>579.6175367506403</v>
+        <v>4842298.766010491</v>
       </c>
       <c r="K74">
-        <v>3514.669564225967</v>
+        <v>3987561.551772963</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3023,34 +3017,34 @@
         <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>64.68617122395</v>
+        <v>1116429.604854549</v>
       </c>
       <c r="G75">
-        <v>157.5242848741981</v>
+        <v>4841342.119238484</v>
       </c>
       <c r="H75">
-        <v>1849.801184391729</v>
+        <v>3985976.434526253</v>
       </c>
       <c r="I75">
-        <v>-639.2573195191136</v>
+        <v>1115613.327656595</v>
       </c>
       <c r="J75">
-        <v>553.400733085366</v>
+        <v>4842250.114423546</v>
       </c>
       <c r="K75">
-        <v>3532.312421229641</v>
+        <v>3987577.523249596</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3058,34 +3052,34 @@
         <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>62.33936664450768</v>
+        <v>1116427.130458971</v>
       </c>
       <c r="G76">
-        <v>180.2089159088505</v>
+        <v>4841358.632067549</v>
       </c>
       <c r="H76">
-        <v>1875.197355723961</v>
+        <v>3985998.567519572</v>
       </c>
       <c r="I76">
-        <v>-597.9995434374148</v>
+        <v>1115661.498864855</v>
       </c>
       <c r="J76">
-        <v>527.1839294200917</v>
+        <v>4842201.462836602</v>
       </c>
       <c r="K76">
-        <v>3533.221303069335</v>
+        <v>3987578.346029323</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3093,34 +3087,34 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>60.23039210137995</v>
+        <v>1116424.906823766</v>
       </c>
       <c r="G77">
-        <v>202.893546943503</v>
+        <v>4841375.144896614</v>
       </c>
       <c r="H77">
-        <v>1898.847928264129</v>
+        <v>3986019.179207734</v>
       </c>
       <c r="I77">
-        <v>-555.7258325761624</v>
+        <v>1115710.856244801</v>
       </c>
       <c r="J77">
-        <v>500.9671257548173</v>
+        <v>4842152.811249656</v>
       </c>
       <c r="K77">
-        <v>3517.39620974505</v>
+        <v>3987564.020112143</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3128,34 +3122,34 @@
         <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>58.3216637738464</v>
+        <v>1116422.894321756</v>
       </c>
       <c r="G78">
-        <v>225.5781779781554</v>
+        <v>4841391.65772568</v>
       </c>
       <c r="H78">
-        <v>1920.977512597657</v>
+        <v>3986038.465340899</v>
       </c>
       <c r="I78">
-        <v>-512.411170476052</v>
+        <v>1115761.429004821</v>
       </c>
       <c r="J78">
-        <v>474.7503220895431</v>
+        <v>4842104.159662711</v>
       </c>
       <c r="K78">
-        <v>3484.837141256784</v>
+        <v>3987534.545498056</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3163,34 +3157,34 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>56.58341023102513</v>
+        <v>1116421.061562899</v>
       </c>
       <c r="G79">
-        <v>248.2628090128078</v>
+        <v>4841408.170554745</v>
       </c>
       <c r="H79">
-        <v>1941.769975624063</v>
+        <v>3986056.586160735</v>
       </c>
       <c r="I79">
-        <v>-468.0299246704852</v>
+        <v>1115813.24707253</v>
       </c>
       <c r="J79">
-        <v>448.5335184242687</v>
+        <v>4842055.508075766</v>
       </c>
       <c r="K79">
-        <v>3435.544097604539</v>
+        <v>3987489.922187064</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3198,34 +3192,34 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>54.99170346652395</v>
+        <v>1116419.383318271</v>
       </c>
       <c r="G80">
-        <v>270.9474400474601</v>
+        <v>4841424.683383809</v>
       </c>
       <c r="H80">
-        <v>1961.377735563688</v>
+        <v>3986073.674501101</v>
       </c>
       <c r="I80">
-        <v>-422.5558315169538</v>
+        <v>1115866.341112485</v>
       </c>
       <c r="J80">
-        <v>422.3167147589944</v>
+        <v>4842006.85648882</v>
       </c>
       <c r="K80">
-        <v>3369.517078788314</v>
+        <v>3987430.150179164</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3233,34 +3227,34 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>53.52706377673068</v>
+        <v>1116417.839049096</v>
       </c>
       <c r="G81">
-        <v>293.6320710821126</v>
+        <v>4841441.196212876</v>
       </c>
       <c r="H81">
-        <v>1979.928548747287</v>
+        <v>3986089.841702798</v>
       </c>
       <c r="I81">
-        <v>-375.9619806549155</v>
+        <v>1115920.742544329</v>
       </c>
       <c r="J81">
-        <v>396.0999110937202</v>
+        <v>4841958.204901876</v>
       </c>
       <c r="K81">
-        <v>3286.75608480811</v>
+        <v>3987355.229474359</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3268,34 +3262,34 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>52.17345093014061</v>
+        <v>1116416.411843068</v>
       </c>
       <c r="G82">
-        <v>316.316702116765</v>
+        <v>4841457.709041941</v>
       </c>
       <c r="H82">
-        <v>1997.530558964237</v>
+        <v>3986105.182014117</v>
       </c>
       <c r="I82">
-        <v>-328.2207990809557</v>
+        <v>1115976.483561382</v>
       </c>
       <c r="J82">
-        <v>369.8831074284458</v>
+        <v>4841909.553314931</v>
       </c>
       <c r="K82">
-        <v>3187.261115663925</v>
+        <v>3987265.160072647</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3303,34 +3297,34 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>50.9175213676921</v>
+        <v>1116415.087631166</v>
       </c>
       <c r="G83">
-        <v>339.0013331514174</v>
+        <v>4841474.221871005</v>
       </c>
       <c r="H83">
-        <v>2014.276117220938</v>
+        <v>3986119.775919795</v>
       </c>
       <c r="I83">
-        <v>-279.304034831819</v>
+        <v>1116033.597149701</v>
       </c>
       <c r="J83">
-        <v>343.6663037631715</v>
+        <v>4841860.901727987</v>
       </c>
       <c r="K83">
-        <v>3071.032171355761</v>
+        <v>3987159.941974028</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3338,34 +3332,34 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>49.7480723709816</v>
+        <v>1116413.854601603</v>
       </c>
       <c r="G84">
-        <v>361.6859641860698</v>
+        <v>4841490.734700071</v>
       </c>
       <c r="H84">
-        <v>2030.244714591587</v>
+        <v>3986133.692697024</v>
       </c>
       <c r="I84">
-        <v>-229.1827402656454</v>
+        <v>1116092.117107588</v>
       </c>
       <c r="J84">
-        <v>317.4495000978972</v>
+        <v>4841812.25014104</v>
       </c>
       <c r="K84">
-        <v>2938.069251883617</v>
+        <v>3987039.575178503</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3373,34 +3367,34 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>48.65562004612199</v>
+        <v>1116412.702754864</v>
       </c>
       <c r="G85">
-        <v>384.3705952207222</v>
+        <v>4841507.247529137</v>
       </c>
       <c r="H85">
-        <v>2045.505264350262</v>
+        <v>3986146.992404347</v>
       </c>
       <c r="I85">
-        <v>-177.8272549315253</v>
+        <v>1116152.0780656</v>
       </c>
       <c r="J85">
-        <v>291.2326964326228</v>
+        <v>4841763.598554096</v>
       </c>
       <c r="K85">
-        <v>2788.372357247493</v>
+        <v>3986904.05968607</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3408,34 +3402,34 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>47.6320746662536</v>
+        <v>1116411.623561401</v>
       </c>
       <c r="G86">
-        <v>407.0552262553746</v>
+        <v>4841523.760358201</v>
       </c>
       <c r="H86">
-        <v>2060.117899299671</v>
+        <v>3986159.727448046</v>
       </c>
       <c r="I86">
-        <v>-125.2071880172323</v>
+        <v>1116213.515507041</v>
       </c>
       <c r="J86">
-        <v>265.0158927673486</v>
+        <v>4841714.946967151</v>
       </c>
       <c r="K86">
-        <v>2621.94148744739</v>
+        <v>3986753.395496732</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3443,34 +3437,34 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>46.67048790960035</v>
+        <v>1116410.609695126</v>
       </c>
       <c r="G87">
-        <v>429.739857290027</v>
+        <v>4841540.273187267</v>
       </c>
       <c r="H87">
-        <v>2074.135402862767</v>
+        <v>3986171.943829352</v>
       </c>
       <c r="I87">
-        <v>-71.29140036474875</v>
+        <v>1116276.465788955</v>
       </c>
       <c r="J87">
-        <v>238.7990891020743</v>
+        <v>4841666.295380206</v>
       </c>
       <c r="K87">
-        <v>2438.776642483306</v>
+        <v>3986587.582610487</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3478,34 +3472,34 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>45.76485391347924</v>
+        <v>1116409.654823649</v>
       </c>
       <c r="G88">
-        <v>452.4244883246795</v>
+        <v>4841556.786016332</v>
       </c>
       <c r="H88">
-        <v>2087.604359994174</v>
+        <v>3986183.682147474</v>
       </c>
       <c r="I88">
-        <v>-16.04798604293814</v>
+        <v>1116340.966163649</v>
       </c>
       <c r="J88">
-        <v>212.5822854367999</v>
+        <v>4841617.643793261</v>
       </c>
       <c r="K88">
-        <v>2238.877822355243</v>
+        <v>3986406.621027336</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3513,34 +3507,34 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>44.90995111305553</v>
+        <v>1116408.753441519</v>
       </c>
       <c r="G89">
-        <v>475.1091193593319</v>
+        <v>4841573.298845397</v>
       </c>
       <c r="H89">
-        <v>2100.566091263208</v>
+        <v>3986194.978413665</v>
       </c>
       <c r="I89">
-        <v>40.55574653353796</v>
+        <v>1116407.054800729</v>
       </c>
       <c r="J89">
-        <v>186.3654817715257</v>
+        <v>4841568.992206316</v>
       </c>
       <c r="K89">
-        <v>2022.2450270632</v>
+        <v>3986210.510747278</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3548,34 +3542,34 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>44.10121534237727</v>
+        <v>1116407.900736427</v>
       </c>
       <c r="G90">
-        <v>497.7937503939843</v>
+        <v>4841589.811674463</v>
       </c>
       <c r="H90">
-        <v>2113.057417353542</v>
+        <v>3986205.864717481</v>
       </c>
       <c r="I90">
-        <v>98.55329395023058</v>
+        <v>1116474.770809698</v>
       </c>
       <c r="J90">
-        <v>160.1486781062513</v>
+        <v>4841520.340619371</v>
       </c>
       <c r="K90">
-        <v>1788.878256607177</v>
+        <v>3985999.251770313</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3583,34 +3577,34 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>43.33463715072521</v>
+        <v>1116407.092480937</v>
       </c>
       <c r="G91">
-        <v>520.4783814286367</v>
+        <v>4841606.324503527</v>
       </c>
       <c r="H91">
-        <v>2125.111289634193</v>
+        <v>3986216.369776341</v>
       </c>
       <c r="I91">
-        <v>157.9789776152946</v>
+        <v>1116544.15426309</v>
       </c>
       <c r="J91">
-        <v>133.9318744409771</v>
+        <v>4841471.689032426</v>
       </c>
       <c r="K91">
-        <v>1538.777510987176</v>
+        <v>3985772.844096442</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3618,34 +3612,34 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>42.60667805815308</v>
+        <v>1116406.324944187</v>
       </c>
       <c r="G92">
-        <v>543.1630124632892</v>
+        <v>4841622.837332593</v>
       </c>
       <c r="H92">
-        <v>2136.757314006082</v>
+        <v>3986226.519392054</v>
       </c>
       <c r="I92">
-        <v>218.8679640699836</v>
+        <v>1116615.24622019</v>
       </c>
       <c r="J92">
-        <v>107.7150707757028</v>
+        <v>4841423.037445481</v>
       </c>
       <c r="K92">
-        <v>1271.942790203193</v>
+        <v>3985531.287725665</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3653,34 +3647,34 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>41.914201757107</v>
+        <v>1116405.594819356</v>
       </c>
       <c r="G93">
-        <v>565.8476434979415</v>
+        <v>4841639.350161659</v>
       </c>
       <c r="H93">
-        <v>2148.022188992114</v>
+        <v>3986236.336832626</v>
       </c>
       <c r="I93">
-        <v>281.2562857992795</v>
+        <v>1116688.088751331</v>
       </c>
       <c r="J93">
-        <v>81.4982671104284</v>
+        <v>4841374.385858536</v>
       </c>
       <c r="K93">
-        <v>988.3740942552303</v>
+        <v>3985274.582657981</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3688,34 +3682,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>41.25441720763795</v>
+        <v>1116404.89916366</v>
       </c>
       <c r="G94">
-        <v>588.532274532594</v>
+        <v>4841655.862990723</v>
       </c>
       <c r="H94">
-        <v>2158.930074384611</v>
+        <v>3986245.843153533</v>
       </c>
       <c r="I94">
-        <v>345.1808625549548</v>
+        <v>1116762.724962786</v>
       </c>
       <c r="J94">
-        <v>55.28146344515417</v>
+        <v>4841325.734271592</v>
       </c>
       <c r="K94">
-        <v>688.0714231432888</v>
+        <v>3985002.72889339</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3723,34 +3717,34 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>40.62483127094808</v>
+        <v>1116404.235348415</v>
       </c>
       <c r="G95">
-        <v>611.2169055672463</v>
+        <v>4841672.375819789</v>
       </c>
       <c r="H95">
-        <v>2169.50290325422</v>
+        <v>3986255.057469647</v>
       </c>
       <c r="I95">
-        <v>410.6795232037077</v>
+        <v>1116839.199022285</v>
       </c>
       <c r="J95">
-        <v>29.06465977987981</v>
+        <v>4841277.082684646</v>
       </c>
       <c r="K95">
-        <v>371.0347768673667</v>
+        <v>3984715.726431893</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3758,34 +3752,34 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>40.02320904812261</v>
+        <v>1116403.601017214</v>
       </c>
       <c r="G96">
-        <v>633.9015366018988</v>
+        <v>4841688.888648855</v>
       </c>
       <c r="H96">
-        <v>2179.760647451996</v>
+        <v>3986263.997186616</v>
       </c>
       <c r="I96">
-        <v>477.7910281132728</v>
+        <v>1116917.556185144</v>
       </c>
       <c r="J96">
-        <v>2.84785611460546</v>
+        <v>4841228.4310977</v>
       </c>
       <c r="K96">
-        <v>37.26415542746498</v>
+        <v>3984413.57527349</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3793,34 +3787,34 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>39.44754048563993</v>
+        <v>1116402.994050721</v>
       </c>
       <c r="G97">
-        <v>656.5861676365512</v>
+        <v>4841705.401477919</v>
       </c>
       <c r="H97">
-        <v>2189.72154468296</v>
+        <v>3986272.678198764</v>
       </c>
       <c r="I97">
-        <v>546.5550920897829</v>
+        <v>1116997.842821052</v>
       </c>
       <c r="J97">
-        <v>-23.36894755066877</v>
+        <v>4841179.779510756</v>
       </c>
       <c r="K97">
-        <v>-313.2404411764155</v>
+        <v>3984096.275418179</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3828,34 +3822,34 @@
         <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>38.8960121103669</v>
+        <v>1116402.412536868</v>
       </c>
       <c r="G98">
-        <v>679.2707986712036</v>
+        <v>4841721.914306984</v>
       </c>
       <c r="H98">
-        <v>2199.40229363831</v>
+        <v>3986281.115059153</v>
       </c>
       <c r="I98">
-        <v>617.0124078799361</v>
+        <v>1117080.106441506</v>
       </c>
       <c r="J98">
-        <v>-49.58575121594313</v>
+        <v>4841131.127923811</v>
       </c>
       <c r="K98">
-        <v>-680.4790129442769</v>
+        <v>3983763.826865963</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3863,34 +3857,34 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>38.36698298837366</v>
+        <v>1116401.854745507</v>
       </c>
       <c r="G99">
-        <v>701.9554297058561</v>
+        <v>4841738.42713605</v>
       </c>
       <c r="H99">
-        <v>2208.818222430736</v>
+        <v>3986289.321126372</v>
       </c>
       <c r="I99">
-        <v>689.2046702518802</v>
+        <v>1117164.395727932</v>
       </c>
       <c r="J99">
-        <v>-75.80255488121747</v>
+        <v>4841082.476336866</v>
       </c>
       <c r="K99">
-        <v>-1064.451559876119</v>
+        <v>3983416.229616839</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3898,34 +3892,34 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>37.85896418149526</v>
+        <v>1116401.31910675</v>
       </c>
       <c r="G100">
-        <v>724.6400607405084</v>
+        <v>4841754.939965115</v>
       </c>
       <c r="H100">
-        <v>2217.983434599356</v>
+        <v>3986297.308691782</v>
       </c>
       <c r="I100">
-        <v>763.1746006690699</v>
+        <v>1117250.760560493</v>
       </c>
       <c r="J100">
-        <v>-102.0193585464918</v>
+        <v>4841033.824749921</v>
       </c>
       <c r="K100">
-        <v>-1465.15808197194</v>
+        <v>3983053.48367081</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3933,34 +3927,34 @@
         <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>37.37060111583995</v>
+        <v>1116400.804192376</v>
       </c>
       <c r="G101">
-        <v>747.3246917751608</v>
+        <v>4841771.45279418</v>
       </c>
       <c r="H101">
-        <v>2226.910936175937</v>
+        <v>3986305.089090259</v>
       </c>
       <c r="I101">
-        <v>838.9659725716942</v>
+        <v>1117339.2520476</v>
       </c>
       <c r="J101">
-        <v>-128.2361622117659</v>
+        <v>4840985.173162976</v>
       </c>
       <c r="K101">
-        <v>-1882.598579231738</v>
+        <v>3982675.589027874</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3968,34 +3962,34 @@
         <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>36.90065838678547</v>
+        <v>1116400.308699816</v>
       </c>
       <c r="G102">
-        <v>770.0093228098133</v>
+        <v>4841787.965623245</v>
       </c>
       <c r="H102">
-        <v>2235.612746685911</v>
+        <v>3986312.672796926</v>
       </c>
       <c r="I102">
-        <v>916.623637280638</v>
+        <v>1117429.922556168</v>
       </c>
       <c r="J102">
-        <v>-154.4529658770403</v>
+        <v>4840936.521576031</v>
       </c>
       <c r="K102">
-        <v>-2316.773051655518</v>
+        <v>3982282.545688031</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4003,34 +3997,34 @@
         <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>36.44800661236822</v>
+        <v>1116399.831438284</v>
       </c>
       <c r="G103">
-        <v>792.6939538444656</v>
+        <v>4841804.478452311</v>
       </c>
       <c r="H103">
-        <v>2244.099996461584</v>
+        <v>3986320.069511972</v>
       </c>
       <c r="I103">
-        <v>996.1935505392975</v>
+        <v>1117522.825742593</v>
       </c>
       <c r="J103">
-        <v>-180.6697695423146</v>
+        <v>4840887.869989085</v>
       </c>
       <c r="K103">
-        <v>-2767.681499243279</v>
+        <v>3981874.353651282</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4038,34 +4032,34 @@
         <v>92</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>36.01161101658108</v>
+        <v>1116399.371316746</v>
       </c>
       <c r="G104">
-        <v>815.378584879118</v>
+        <v>4841820.991281376</v>
       </c>
       <c r="H104">
-        <v>2252.383012244333</v>
+        <v>3986327.288235242</v>
       </c>
       <c r="I104">
-        <v>1077.722799708973</v>
+        <v>1117618.016584515</v>
       </c>
       <c r="J104">
-        <v>-206.886573207589</v>
+        <v>4840839.218402141</v>
       </c>
       <c r="K104">
-        <v>-3235.32392199502</v>
+        <v>3981451.012917626</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4073,34 +4067,34 @@
         <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>35.5905214798893</v>
+        <v>1116398.927333426</v>
       </c>
       <c r="G105">
-        <v>838.0632159137705</v>
+        <v>4841837.504110441</v>
       </c>
       <c r="H105">
-        <v>2260.471392727332</v>
+        <v>3986334.337332086</v>
       </c>
       <c r="I105">
-        <v>1161.25963163392</v>
+        <v>1117715.551413344</v>
       </c>
       <c r="J105">
-        <v>-233.1033768728634</v>
+        <v>4840790.566815196</v>
       </c>
       <c r="K105">
-        <v>-3719.700319910739</v>
+        <v>3981012.523487064</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4108,34 +4102,34 @@
         <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>35.18386383924089</v>
+        <v>1116398.498566636</v>
       </c>
       <c r="G106">
-        <v>860.7478469484229</v>
+        <v>4841854.016939507</v>
       </c>
       <c r="H106">
-        <v>2268.374075424842</v>
+        <v>3986341.224591628</v>
       </c>
       <c r="I106">
-        <v>1246.85348119254</v>
+        <v>1117815.487947604</v>
       </c>
       <c r="J106">
-        <v>-259.3201805381374</v>
+        <v>4840741.915228251</v>
       </c>
       <c r="K106">
-        <v>-4220.810692990435</v>
+        <v>3980558.885359595</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4143,34 +4137,34 @@
         <v>92</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>34.79083225629169</v>
+        <v>1116398.084166724</v>
       </c>
       <c r="G107">
-        <v>883.4324779830752</v>
+        <v>4841870.529768572</v>
       </c>
       <c r="H107">
-        <v>2276.099396036318</v>
+        <v>3986347.957278506</v>
       </c>
       <c r="I107">
-        <v>1334.555000551644</v>
+        <v>1117917.88532708</v>
       </c>
       <c r="J107">
-        <v>-285.5369842034118</v>
+        <v>4840693.263641305</v>
       </c>
       <c r="K107">
-        <v>-4738.655041234116</v>
+        <v>3980090.09853522</v>
       </c>
     </row>
   </sheetData>
